--- a/Assets/StreamingAssets/Excels/VRDeviceData2.xlsx
+++ b/Assets/StreamingAssets/Excels/VRDeviceData2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D77DC1-CA53-4B22-A4E0-C7E10074D518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17BE906-DB79-442E-8393-0367DDA1F7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="675" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>付强均</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7BA85B19-0205-47D6-8521-7361AD0A3723}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2EAE1D31-B4E1-4CCE-8CE7-406F738F0939}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每个设备识别的序列号
+现实中的设备 绑定的游戏物体名称
 </t>
         </r>
       </text>
@@ -79,12 +79,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-现实中的设备 映射到游戏中的物体名称
+现实中的设备 对应的游戏物体挂载脚本SteamVR_TrackedObject的 index类型 (Hmd, Device1 , Device2)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{55F912E7-87B8-42CF-B73B-59B2FF96D573}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4C8D9574-A3F7-4596-9528-1376DD71D6AE}">
       <text>
         <r>
           <rPr>
@@ -106,12 +106,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每个设备识别的序列号
+现实中的设备 绑定的游戏物体名称
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{36975263-A157-41CA-A4A2-9A2071BA9DF7}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{05219326-EC6D-4A7A-BE06-50A2566280CE}">
       <text>
         <r>
           <rPr>
@@ -133,12 +133,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-现实中的设备 映射到游戏中的物体名称
+现实中的设备 对应的游戏物体挂载脚本SteamVR_TrackedObject的 index类型 (Hmd, Device1 , Device2)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{89811F00-DD3D-462D-9C09-E1E4210F9B67}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{C1B46144-BA94-4CAD-B4E6-AFA9E9DD3C8B}">
       <text>
         <r>
           <rPr>
@@ -160,12 +160,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每个设备识别的序列号
+现实中的设备 绑定的游戏物体名称
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{7F5EEF20-4481-4CCE-938D-EFC80370E3F7}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{2BF42645-290A-4034-A912-25FB9DA712E5}">
       <text>
         <r>
           <rPr>
@@ -187,12 +187,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-现实中的设备 映射到游戏中的物体名称
+现实中的设备 对应的游戏物体挂载脚本SteamVR_TrackedObject的 index类型 (Hmd, Device1 , Device2)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{15C81866-94BB-4693-A462-65CB932F976E}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{F3B2ACB0-DFDB-48CC-AAC0-BD4EB4F79753}">
       <text>
         <r>
           <rPr>
@@ -214,12 +214,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每个设备识别的序列号
+现实中的设备 绑定的游戏物体名称
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{AC7D3A02-4302-4481-A3FA-FB60A785F375}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{F99E0C95-1C2D-4CCE-AF5B-325727D16551}">
       <text>
         <r>
           <rPr>
@@ -241,12 +241,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-现实中的设备 映射到游戏中的物体名称
+现实中的设备 对应的游戏物体挂载脚本SteamVR_TrackedObject的 index类型 (Hmd, Device1 , Device2)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{0D18456B-50E9-4525-9240-84BDDFAB0284}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{89030D3F-831B-4CD4-9A38-36AECC4E4FBA}">
       <text>
         <r>
           <rPr>
@@ -268,12 +268,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每个设备识别的序列号
+现实中的设备 绑定的游戏物体名称
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{2874A593-572D-49CC-877F-ECE502377CC1}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{4E6C0B89-3A7D-4FF3-9E2E-199D34ED21F7}">
       <text>
         <r>
           <rPr>
@@ -295,12 +295,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-现实中的设备 映射到游戏中的物体名称
+现实中的设备 对应的游戏物体挂载脚本SteamVR_TrackedObject的 index类型 (Hmd, Device1 , Device2)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{8D2D7E8D-EF0A-400F-AD45-5B0AB638F3DD}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{7418476F-34B6-413D-A0CB-799F6786621A}">
       <text>
         <r>
           <rPr>
@@ -322,12 +322,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每个设备识别的序列号
+现实中的设备 绑定的游戏物体名称
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{E61BBE78-5EEC-4F26-9103-D2F35A63DE65}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{089C8C71-B880-4F02-8739-34CBA94F59FC}">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-现实中的设备 映射到游戏中的物体名称
+现实中的设备 对应的游戏物体挂载脚本SteamVR_TrackedObject的 index类型 (Hmd, Device1 , Device2)
 </t>
         </r>
       </text>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -372,13 +372,6 @@
     <t>LeftHand</t>
   </si>
   <si>
-    <t>Device1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device2</t>
-  </si>
-  <si>
     <t>RightHand</t>
   </si>
   <si>
@@ -523,6 +516,55 @@
   <si>
     <t>tracked_Object_Waist</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamVR_TrackedObject_Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamVR_TrackedObject_LeftHand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamVR_TrackedObject_RightHand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamVR_TrackedObject_LeftFoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamVR_TrackedObject_RightFoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamVR_TrackedObject_Waist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftHand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftHand/Device1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightHand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightHand/Device2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B-3BD00752</t>
+  </si>
+  <si>
+    <t>3B-3BD00294</t>
+  </si>
+  <si>
+    <t>3B-3BD00802</t>
   </si>
 </sst>
 </file>
@@ -909,20 +951,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="9" style="3"/>
     <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="11.75" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="10.375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,245 +976,245 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
